--- a/Registration/Registration/DataDrivenTests/UserData.xlsx
+++ b/Registration/Registration/DataDrivenTests/UserData.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="122">
   <si>
     <t>Username</t>
   </si>
@@ -381,6 +381,9 @@
   </si>
   <si>
     <t>BeStr@ngEn0!gh</t>
+  </si>
+  <si>
+    <t>petya1@abv.bg</t>
   </si>
 </sst>
 </file>
@@ -436,9 +439,9 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Нормален" xfId="0" builtinId="0"/>
@@ -746,13 +749,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -767,13 +773,13 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -790,13 +796,15 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="36.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -811,35 +819,35 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -855,26 +863,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="53.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="53.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -922,821 +931,817 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M2" s="1">
+        <v>123456790</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="F2">
+      <c r="E6" s="1">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1">
         <v>6</v>
       </c>
-      <c r="G2">
+      <c r="G6" s="1">
         <v>2013</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M2">
+      <c r="M6" s="1">
         <v>123456789</v>
       </c>
-      <c r="N2">
+      <c r="N6" s="1">
         <v>123456789</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3">
+      <c r="E7" s="1">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1">
         <v>6</v>
       </c>
-      <c r="G3">
+      <c r="G7" s="1">
         <v>2013</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M3">
+      <c r="M7" s="1">
         <v>123456789</v>
       </c>
-      <c r="N3">
+      <c r="N7" s="1">
         <v>123456789</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
+      <c r="E8" s="1">
+        <v>2</v>
+      </c>
+      <c r="F8" s="1">
         <v>6</v>
       </c>
-      <c r="G4">
+      <c r="G8" s="1">
         <v>2013</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" t="s">
+      <c r="I8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M4">
+      <c r="M8" s="1">
         <v>123456789</v>
       </c>
-      <c r="N4">
+      <c r="N8" s="1">
         <v>123456789</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
+      <c r="E9" s="1">
+        <v>2</v>
+      </c>
+      <c r="F9" s="1">
         <v>6</v>
       </c>
-      <c r="G5">
+      <c r="G9" s="1">
         <v>2013</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H9" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M5">
+      <c r="M9" s="1">
         <v>123456789</v>
       </c>
-      <c r="N5">
+      <c r="N9" s="1">
         <v>123456789</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
+      <c r="E10" s="1">
+        <v>2</v>
+      </c>
+      <c r="F10" s="1">
         <v>6</v>
       </c>
-      <c r="G6">
+      <c r="G10" s="1">
         <v>2013</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H10" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M6">
+      <c r="M10" s="1">
         <v>123456789</v>
       </c>
-      <c r="N6">
+      <c r="N10" s="1">
         <v>123456789</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
+      <c r="E11" s="1">
+        <v>2</v>
+      </c>
+      <c r="F11" s="1">
         <v>6</v>
       </c>
-      <c r="G7">
+      <c r="G11" s="1">
         <v>2013</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H11" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I11" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J11" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="N11" s="1">
+        <v>123456789</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2</v>
+      </c>
+      <c r="F12" s="1">
+        <v>6</v>
+      </c>
+      <c r="G12" s="1">
+        <v>2013</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M7">
+      <c r="M12" s="1">
         <v>123456789</v>
       </c>
-      <c r="N7">
+      <c r="N12" s="1">
         <v>123456789</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
+      <c r="E13" s="1">
+        <v>2</v>
+      </c>
+      <c r="F13" s="1">
         <v>6</v>
       </c>
-      <c r="G8">
+      <c r="G13" s="1">
         <v>2013</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="H13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M13" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="N13" s="1">
+        <v>123456789</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2</v>
+      </c>
+      <c r="F14" s="1">
+        <v>6</v>
+      </c>
+      <c r="G14" s="1">
+        <v>2013</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M8">
+      <c r="N14" s="1">
         <v>123456789</v>
       </c>
-      <c r="N8">
-        <v>123456789</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
+      <c r="E15" s="1">
+        <v>2</v>
+      </c>
+      <c r="F15" s="1">
         <v>6</v>
       </c>
-      <c r="G9">
+      <c r="G15" s="1">
         <v>2013</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="H15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K9" t="s">
+      <c r="J15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M9">
-        <v>123456789</v>
-      </c>
-      <c r="N9">
-        <v>123456789</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="M15" s="1">
+        <v>123456790</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
+      <c r="E16" s="1">
+        <v>2</v>
+      </c>
+      <c r="F16" s="1">
         <v>6</v>
       </c>
-      <c r="G10">
+      <c r="G16" s="1">
         <v>2013</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="H16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M16" s="1">
+        <v>123456790</v>
+      </c>
+      <c r="N16" s="1">
+        <v>123456790</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2</v>
+      </c>
+      <c r="F17" s="1">
+        <v>6</v>
+      </c>
+      <c r="G17" s="1">
+        <v>2013</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M17" s="1">
+        <v>123456790</v>
+      </c>
+      <c r="N17" s="1">
+        <v>123456790</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="1">
+        <v>2</v>
+      </c>
+      <c r="F18" s="1">
+        <v>6</v>
+      </c>
+      <c r="G18" s="1">
+        <v>2013</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K18" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N10">
-        <v>123456789</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>72</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="M18" s="1">
+        <v>123</v>
+      </c>
+      <c r="N18" s="1">
+        <v>123456790</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
+      <c r="E19" s="1">
+        <v>2</v>
+      </c>
+      <c r="F19" s="1">
         <v>6</v>
       </c>
-      <c r="G11">
+      <c r="G19" s="1">
         <v>2013</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="H19" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M19" s="1">
+        <v>123</v>
+      </c>
+      <c r="N19" s="1">
+        <v>123456790</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2</v>
+      </c>
+      <c r="F20" s="1">
+        <v>6</v>
+      </c>
+      <c r="G20" s="1">
+        <v>2013</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M20" s="1">
+        <v>123456790</v>
+      </c>
+      <c r="N20" s="1">
+        <v>123456790</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="1">
+        <v>2</v>
+      </c>
+      <c r="F21" s="1">
+        <v>6</v>
+      </c>
+      <c r="G21" s="1">
+        <v>2013</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M21" s="1">
+        <v>123456790</v>
+      </c>
+      <c r="N21" s="1">
+        <v>123456790</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="1">
+        <v>2</v>
+      </c>
+      <c r="F22" s="1">
+        <v>6</v>
+      </c>
+      <c r="G22" s="1">
+        <v>2013</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M11">
+      <c r="M22" s="1">
         <v>123456790</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>79</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="N22" s="1">
+        <v>123456790</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
+      <c r="E23" s="1">
+        <v>2</v>
+      </c>
+      <c r="F23" s="1">
         <v>6</v>
       </c>
-      <c r="G12">
+      <c r="G23" s="1">
         <v>2013</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="I12" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" t="s">
-        <v>54</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="H23" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L12" t="s">
+      <c r="L23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M12">
+      <c r="M23" s="1">
         <v>123456790</v>
       </c>
-      <c r="N12">
+      <c r="N23" s="1">
         <v>123456790</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>80</v>
-      </c>
-      <c r="B13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>6</v>
-      </c>
-      <c r="G13">
-        <v>2013</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="I13" t="s">
-        <v>87</v>
-      </c>
-      <c r="J13" t="s">
-        <v>78</v>
-      </c>
-      <c r="K13" t="s">
-        <v>22</v>
-      </c>
-      <c r="L13" t="s">
-        <v>23</v>
-      </c>
-      <c r="M13">
-        <v>123456790</v>
-      </c>
-      <c r="N13">
-        <v>123456790</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>89</v>
-      </c>
-      <c r="B14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>6</v>
-      </c>
-      <c r="G14">
-        <v>2013</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="I14" t="s">
-        <v>87</v>
-      </c>
-      <c r="J14" t="s">
-        <v>21</v>
-      </c>
-      <c r="K14" t="s">
-        <v>22</v>
-      </c>
-      <c r="L14" t="s">
-        <v>23</v>
-      </c>
-      <c r="M14">
-        <v>123</v>
-      </c>
-      <c r="N14">
-        <v>123456790</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>92</v>
-      </c>
-      <c r="B15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>6</v>
-      </c>
-      <c r="G15">
-        <v>2013</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="I15" t="s">
-        <v>87</v>
-      </c>
-      <c r="J15" t="s">
-        <v>21</v>
-      </c>
-      <c r="K15" t="s">
-        <v>22</v>
-      </c>
-      <c r="L15" t="s">
-        <v>23</v>
-      </c>
-      <c r="M15">
-        <v>123</v>
-      </c>
-      <c r="N15">
-        <v>123456790</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>95</v>
-      </c>
-      <c r="B16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>6</v>
-      </c>
-      <c r="G16">
-        <v>2013</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="I16" t="s">
-        <v>87</v>
-      </c>
-      <c r="J16" t="s">
-        <v>21</v>
-      </c>
-      <c r="K16" t="s">
-        <v>22</v>
-      </c>
-      <c r="L16" t="s">
-        <v>23</v>
-      </c>
-      <c r="M16">
-        <v>123456790</v>
-      </c>
-      <c r="N16">
-        <v>123456790</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>97</v>
-      </c>
-      <c r="B17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>6</v>
-      </c>
-      <c r="G17">
-        <v>2013</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="I17" t="s">
-        <v>87</v>
-      </c>
-      <c r="J17" t="s">
-        <v>21</v>
-      </c>
-      <c r="K17" t="s">
-        <v>116</v>
-      </c>
-      <c r="L17" t="s">
-        <v>23</v>
-      </c>
-      <c r="M17">
-        <v>123456790</v>
-      </c>
-      <c r="N17">
-        <v>123456790</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>101</v>
-      </c>
-      <c r="B18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>6</v>
-      </c>
-      <c r="G18">
-        <v>2013</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="I18" t="s">
-        <v>20</v>
-      </c>
-      <c r="J18" t="s">
-        <v>21</v>
-      </c>
-      <c r="K18" t="s">
-        <v>22</v>
-      </c>
-      <c r="L18" t="s">
-        <v>23</v>
-      </c>
-      <c r="M18">
-        <v>123456790</v>
-      </c>
-      <c r="N18">
-        <v>123456790</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>104</v>
-      </c>
-      <c r="B19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>6</v>
-      </c>
-      <c r="G19">
-        <v>2013</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="I19" t="s">
-        <v>117</v>
-      </c>
-      <c r="J19" t="s">
-        <v>21</v>
-      </c>
-      <c r="K19" t="s">
-        <v>22</v>
-      </c>
-      <c r="L19" t="s">
-        <v>23</v>
-      </c>
-      <c r="M19">
-        <v>123456790</v>
-      </c>
-      <c r="N19">
-        <v>123456790</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>107</v>
-      </c>
-      <c r="H20" s="3"/>
-      <c r="M20">
-        <v>123456790</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>107</v>
-      </c>
-      <c r="H21" s="3"/>
-      <c r="M21" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>107</v>
-      </c>
-      <c r="H22" s="3"/>
-      <c r="M22" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>107</v>
-      </c>
-      <c r="H23" s="3"/>
-      <c r="M23" s="1" t="s">
-        <v>120</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="M21" r:id="rId1"/>
-    <hyperlink ref="M22" r:id="rId2"/>
-    <hyperlink ref="M23" r:id="rId3"/>
+    <hyperlink ref="M3" r:id="rId1"/>
+    <hyperlink ref="M4" r:id="rId2"/>
+    <hyperlink ref="M5" r:id="rId3"/>
+    <hyperlink ref="J11" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -1745,25 +1750,26 @@
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="48.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1775,183 +1781,183 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1965,13 +1971,14 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="54.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -1983,154 +1990,154 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="1">
         <v>0</v>
       </c>
     </row>
